--- a/wishes.xlsx
+++ b/wishes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35498\OneDrive\PSU\SYAP\New_yap_16.01.20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B64DE-62D7-4733-922C-BF754D07E3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8952223A-7496-49E7-90FC-B05F8DB399A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Вася</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Путь к шаблону:</t>
   </si>
   <si>
-    <t>C:\Users\35498\Desktop\PSU\nyap\template.dotx</t>
-  </si>
-  <si>
     <t>счастливого года</t>
   </si>
   <si>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>успешно закончить год</t>
+  </si>
+  <si>
+    <t>C:\Users\35498\OneDrive\PSU\SYAP\New_yap_16.01.20\template.dotx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество пожеланий в шаблоне: </t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -434,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DF0011-0D4E-4725-B987-1E18D130C727}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -462,40 +465,40 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -507,13 +510,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5B7D1F-7A46-4170-BE11-C04616BAA702}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,12 +525,15 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
       <c r="B2" s="1">
-        <v>23423423</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/wishes.xlsx
+++ b/wishes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35498\OneDrive\PSU\SYAP\New_yap_16.01.20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35498\source\repos\New_yap_16.01.20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8952223A-7496-49E7-90FC-B05F8DB399A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7B8958-0F4B-4E52-A131-428D1719F2FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,10 @@
     <t>успешно закончить год</t>
   </si>
   <si>
-    <t>C:\Users\35498\OneDrive\PSU\SYAP\New_yap_16.01.20\template.dotx</t>
-  </si>
-  <si>
     <t xml:space="preserve">Количество пожеланий в шаблоне: </t>
+  </si>
+  <si>
+    <t>C:\Users\35498\source\repos\New_yap_16.01.20\template.dotx</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,12 +525,12 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>

--- a/wishes.xlsx
+++ b/wishes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35498\source\repos\New_yap_16.01.20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7B8958-0F4B-4E52-A131-428D1719F2FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E10D9BA-4101-434E-9CD8-AE14E29D7664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Вася</t>
   </si>
@@ -53,40 +53,37 @@
     <t>Путь к шаблону:</t>
   </si>
   <si>
-    <t>счастливого года</t>
-  </si>
-  <si>
-    <t>счастливой жизни</t>
-  </si>
-  <si>
-    <t>счастливого путешествия</t>
-  </si>
-  <si>
-    <t>крепкого здоровья</t>
-  </si>
-  <si>
-    <t>не болеть</t>
-  </si>
-  <si>
-    <t>много денег</t>
-  </si>
-  <si>
-    <t>наличия денежного фонтана на кухне</t>
-  </si>
-  <si>
-    <t>горы богатства</t>
-  </si>
-  <si>
-    <t>получить зарплату</t>
-  </si>
-  <si>
-    <t>успешно закончить год</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество пожеланий в шаблоне: </t>
-  </si>
-  <si>
     <t>C:\Users\35498\source\repos\New_yap_16.01.20\template.dotx</t>
+  </si>
+  <si>
+    <t>Счастливого года</t>
+  </si>
+  <si>
+    <t>Счастливой жизни</t>
+  </si>
+  <si>
+    <t>Счастливого путешествия</t>
+  </si>
+  <si>
+    <t>Крепкого здоровья</t>
+  </si>
+  <si>
+    <t>Не болеть</t>
+  </si>
+  <si>
+    <t>Много денег</t>
+  </si>
+  <si>
+    <t>Горы богатства</t>
+  </si>
+  <si>
+    <t>Наличия денежного фонтана на кухне</t>
+  </si>
+  <si>
+    <t>Получить зарплату</t>
+  </si>
+  <si>
+    <t>Успешно закончить год</t>
   </si>
 </sst>
 </file>
@@ -438,7 +435,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,24 +462,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -490,15 +487,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +508,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,16 +522,11 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wishes.xlsx
+++ b/wishes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35498\source\repos\New_yap_16.01.20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E10D9BA-4101-434E-9CD8-AE14E29D7664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900EA5CE-60A1-49D4-9436-794406B97FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Вася</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Успешно закончить год</t>
+  </si>
+  <si>
+    <t>Checking</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DF0011-0D4E-4725-B987-1E18D130C727}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +449,7 @@
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -459,8 +462,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -473,8 +479,11 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -484,18 +493,42 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>17</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5B7D1F-7A46-4170-BE11-C04616BAA702}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>

--- a/wishes.xlsx
+++ b/wishes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35498\source\repos\New_yap_16.01.20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900EA5CE-60A1-49D4-9436-794406B97FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D5187A-18D2-4BF7-BB00-96FB6EE4C829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Вася</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Checking</t>
+  </si>
+  <si>
+    <t>Bad Script</t>
+  </si>
+  <si>
+    <t>Имя шрифта:</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DF0011-0D4E-4725-B987-1E18D130C727}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -540,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5B7D1F-7A46-4170-BE11-C04616BAA702}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +565,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
